--- a/data/hotels_by_city/Dallas/Dallas_shard_637.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_637.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="916">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Patty H</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>I arrived late at the hotel after a long day  checking in at 7 PM. The rooms toilet Wouldn't  flush - it was clogged with pooh. The front desk quickly sent maintenance up to fix the toilet. I tried the Tv and got a snowy screen and static. Again called the front desk who sent the maintenance man. He said that the TV had been out for days. He blamed it on the cable people who hadn't come in a timely manner. Regardless I had no TV for the entire stay at this hotel. I thought the carpet looked like it wasn't  vacuumed very well. I checked around the floor and came across an obvious scattering of large toenail clippings. There are strong shortcomings in the cleaning routines here. The sheets seemed clean, but the bed was very hard and uncomfortable. One of the washcloths was so stained I didnt to use it. I don't understand how this Ramada has such high review scores!More</t>
   </si>
   <si>
+    <t>J R W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r573377016-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>The motel is an older property, but very well maintained. The manager, Bobby, went out of his way to answer all of my questions and handle all of my needs, above and beyond the call of duty.We stayed here three nights. The first day we were in and out of the room all day and when we called the operator to request new towels and toilet paper they were delivered almost before we hung up the phone.We were out of the room all day on Sunday, and although we ran out of Kleenex the night before, we didn't report it as we felt that the housekeeper would replace it.Apparently the facility was sold out while we were there and the housekeepers were overwhelmed, as when we returned that evening the waste basket had been emptied, but the Kleenex was still empty and the bed hadn't been made???More</t>
   </si>
   <si>
+    <t>ron431</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r569497128-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Timothy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r563171481-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I needed a place to stay between corporate moves and found the Ramada. Very nice value, tasty morning sausage but the staff made the stay. Brandi and Sheri were great ... always checking on me making sure I had all I needed and that my room was always spotless. Management always greeted me by name and made sure my needs were met. Thanks all ... TimMore</t>
   </si>
   <si>
+    <t>VC C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r561038756-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Cat H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r560028116-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
@@ -287,6 +305,9 @@
 However.. one morning as my husband and so came down a few minutes before the end of breakfast...My husband and I aren’t made of money so always checking for great deals! Found a great price for one night and paid so we had somewhere to stay as we were here for a family emergency. The next morning we came down to the new manager at the desk and asked to recheck out our room and if possible at the same price we paid from the 3rd party. He said of course that wouldn’t be a problem and checked us out for the same price we paid through Expedia. He did this for us 3 or 4 different times and each time never bumped the price of our room. He was extremely kind and helpful on many occasions when my husband or I needed assistance and answered majority of our questions with proficiency! He was newer to this area of Texas so didn’t know much about certain places to go things to do but that was okay we just walked to many of the nearby restaurants and shops. Didn’t have to walk more than a mile to the Walmart. Majority of our experience with staff was with the new manager, one of the other front desk ladies miss Debbie and another wonderful lady who worked laundry and housekeeping in the mornings.. our experience with them was wonderful and very sweet!However.. one morning as my husband and so came down a few minutes before the end of breakfast we sat there drinking coffee and enjoying a waffle, and a couple other staff members or house keepers we hadn’t had encounters with came in and started eating breakfast and talking.. at first it seemed they were just talking about a mutual friend but then we realized they were making comments about the new owner. It started off seemingly innocent as most things change when under new management but then they started to make racist remarks about his Middle Eastern/Indian heritage and then taking about how they were gonna end up fired because of not complying to his rules. I’m so sorry to the new manager that he has to deal with this kind of disrespect from his employees. You’d be better off without them and bringing in an all new crew. Our actual stay at the hotel was as pleasant as can be during the difficult time we faced that brought us to Texas in the first place. We would definitely come back we would just hope to see some new staff that knew respect for other human beings. God bless and thank you for your hospitality!More</t>
   </si>
   <si>
+    <t>Dave A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r553779241-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -317,6 +338,9 @@
     <t>This is the best stay in the area for the price Pool, breakfast, friendly staff. The Young lady at the desk Brandy was very welcoming, just the kind of staff you want checking you in at the end of a long day.More</t>
   </si>
   <si>
+    <t>Americas Best V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r553582654-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -335,6 +359,9 @@
     <t>WOW Unarguably one of the best hotel in that area. Lots on channel on TV, comfy bed, super good breakfast, heated pool &amp; spa that too in winter. What else do i need as a customer? I'm really really impressed by the staff. Well kept and well managed hotel. My friend got me military discount which was a plus. I do recommend this great hotel to everyone. Will be back soon.More</t>
   </si>
   <si>
+    <t>davidhV8836HL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r553269576-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -356,6 +383,9 @@
     <t>We did not feel that the room was very clean but we were too tired to go look for another hotel.  Pictures on website make this hotel look better than it really looks.  Found curly hair on pillows and there was lots of mud in parking area.  Price was reasonable but the girl working the desk could not give us directions to the hotel.  Took us around 40 minutes to find it when we originally were only a few blocks away.More</t>
   </si>
   <si>
+    <t>224lorettas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r549355105-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -383,6 +413,9 @@
     <t>We have stayed here every Christmas for many years.  All the staff are friendly and they have done an excellent job keeping the hotel looking fresh.More</t>
   </si>
   <si>
+    <t>Frank G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r546643498-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -407,6 +440,9 @@
     <t>The room was clean with a bathroom that was roomy.  Staff is very polite and helpful.  I would stay here again if I am in the area again.More</t>
   </si>
   <si>
+    <t>rdiaz_511022</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r545533224-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -422,6 +458,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>N8970AMteresaf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r543240997-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -449,6 +488,9 @@
     <t>I was pleasantly surprised with the price of this hotel. Including cute Texas shaped waffles for breakfast. A nice hot tub and a warm swimming pool for an amazing price.More</t>
   </si>
   <si>
+    <t>Chris E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r540181280-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -473,6 +515,9 @@
     <t>We were pleasantly greeted around midnight when we arrived. The building and rooms aren’t new but they’re clean and comfortable. The staff were super nice and helpful with anything we asked. The breakfast was a good start to each day. More</t>
   </si>
   <si>
+    <t>beixingye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r530044095-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -494,6 +539,9 @@
     <t>Indoor heated Pool and hot tub are awesome. The front desk was very friendly. Reminder me of the good old day of Texas small town. More</t>
   </si>
   <si>
+    <t>CypressTx78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r517729433-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -512,6 +560,9 @@
     <t>Responded October 1, 2017</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r506146012-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -539,6 +590,9 @@
     <t>Spent the night here and it was great.  Breakfast was great too.  People in the room above us we're walking too hard. Otherwise it was a great place to stay.  The staff and management we're very friendly and professional.  Even had a welcome letter from the management on the bed when we arrived.More</t>
   </si>
   <si>
+    <t>cajuncook21008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r501691693-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -557,6 +611,9 @@
     <t>Very clean room with 2 queen beds,an office desk with Plugins for electronics,fridge,microwave,iron,ironing board,hair dryer,coffee pot,nice vanity mirror at sink, a table with 2 chairs &amp; a dresser plus wifi n Tv with indoor heated pool n hot tub also laundry facilities just down the hall...Darlene &amp; Heather were Awesome from start to finish assuringour stay was great, they even carried my bags in as  I am disabled n was traveling with 3 kids....I already was a repeat customer as on the way back to Colorado I stopped n stayed again.. plus I am planning a trip as we speak to return with my entire family.. thanks again for an awesome experienceMore</t>
   </si>
   <si>
+    <t>db6489</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r489221426-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -575,6 +632,9 @@
     <t>Responded June 1, 2017</t>
   </si>
   <si>
+    <t>jillianh139</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r488203990-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -593,6 +653,9 @@
     <t>Very awesome hotel,  extremely clean, bug free,  I checked the bed,  awesome pool,  friendly staff, excellent price,   I always choose ramada,  can't wait to stay again. .would totally recommend More</t>
   </si>
   <si>
+    <t>SafetyInstituteUSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r485070728-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -617,6 +680,9 @@
     <t>Staying in the Wyndham family you always expect a great deal. Booked Ramada in Decatur Tx rating seemed pivotal but loyalty. Got my room, warm, 90 degrees outside. Man and woman employee upfront at desk confirmed no smoking room. Room had burns in the carpet, closed bathroom door and cig smoked reaped. This morning front desk lady said 114-116-118 were converted to nonsmoking rooms, without replacing carpets and drapes so converted means what. Total dissatisfaction, breakfast was a joke, 4 egg discs, 4 little sausage parties, sign said ask from desk for waffle mix... really... crazy... I'm definently looking at another hotel when I come back. Pics of carpet burned from cig smokers.More</t>
   </si>
   <si>
+    <t>sandysC3826XI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r478369191-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -644,6 +710,9 @@
     <t>I have previously stayed at this hotel. The staff at the time of check-in was very nice and helpful.I would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>einstein2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r477736016-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -665,6 +734,9 @@
     <t>We had a long day of driving and really enjoyed the pool and hot tub at the Ramada.  The rooms were clean and the staff was nice.  The breakfast was really good - they even had make your own breakfast burritos.  The location is a little tricky because most of the food is on the other side of the highway, so it took a while to pick up a quick dinner and bring it back to the hotel, but I wouldn’t let it deter me from staying here again.  Good price for a quick stop.More</t>
   </si>
   <si>
+    <t>881jerryt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r475954737-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -674,6 +746,9 @@
     <t>04/15/2017</t>
   </si>
   <si>
+    <t>RonKJohnson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r464166415-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -701,6 +776,9 @@
     <t>Was passing through Decatur and needed a last minute place to stay overnight. This Ramada was clean with friendly and helpful staff.  Rates were good. I also enjoyed the complimentary continental breakfast as I had an early start the next morning.More</t>
   </si>
   <si>
+    <t>Steph H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r449251300-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -725,6 +803,9 @@
     <t>I was pleasantly suprised by the quality of service, cleanliness of the room and the breakfast was great. The location was desirable. Overall, I would stay again if I was ever in the area. I stayed because of the positive trip advisor reviews and they were spot on!!More</t>
   </si>
   <si>
+    <t>DkBeaver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r447518994-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -752,6 +833,9 @@
     <t>Love the staff at this place, they are so helpful.  We love the indoor pool.  Hot breakfast and pretty nice rooms.  Our favorite place in Decatur TX.More</t>
   </si>
   <si>
+    <t>Frank F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r440954646-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -770,6 +854,9 @@
     <t>Responded December 1, 2016</t>
   </si>
   <si>
+    <t>Allertep87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r428499516-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -797,6 +884,9 @@
     <t>Customer service was awesome. Felt very safe there. Hotel not in the best shape but can't complain for the price again not that bad. Only negative is its hard to leave to get on main road due to traffic. Breakfast was good.More</t>
   </si>
   <si>
+    <t>U3151HNstephenr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r421797988-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -815,6 +905,9 @@
     <t>Responded September 27, 2016</t>
   </si>
   <si>
+    <t>Janet S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r418907937-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -830,6 +923,9 @@
     <t>Responded September 21, 2016</t>
   </si>
   <si>
+    <t>barbaracA3849HD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r416422511-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -857,12 +953,18 @@
     <t>We have stayed in this hotel numerous times in the nearly 15 years we've lived in the area. It has always been impeccably clean the rooms,pool, grounds. I highly recommend this hotel ....less costly than its competitors with similar amenities but equal in all other aspects. Added plus are fresh pears from their tree when available &amp; the beauty of the orchids. It's the ONLY hotel we will ever stay in when in the area. Thank-you owners &amp; employees!!!!!More</t>
   </si>
   <si>
+    <t>reba09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r416411553-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
     <t>416411553</t>
   </si>
   <si>
+    <t>Denise W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r408419033-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1004,9 @@
     <t>Great hotel for the price. Very friendly and knowledgeable staff.They go out of their way to assist you.Great customer service.The location is great and very easy to get to dining locations,and to the major interstates.More</t>
   </si>
   <si>
+    <t>121kendraj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r402140899-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1022,9 @@
     <t>Responded August 7, 2016</t>
   </si>
   <si>
+    <t>leahpng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r401024073-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1049,9 @@
     <t>Ramada Decatur is conveniently located right off of Hwy 287 offering easy access to historic downtown Decatur (and many local restaurants to explore). Free parking &amp; wifi, breakfast included. Staffs were the friendliest, attentive and helpful whenever I had questions. Room was spacious, clean, comfy and quiet. Their indoor pool and jacuzzi were a huge plus for a relaxing dip after a long day. More</t>
   </si>
   <si>
+    <t>marisaemi412</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r400157020-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -968,6 +1079,9 @@
     <t>My husband and I always stay at this Ramada when in town - it's one of the original hotels in the area (with the same owner!) but has maintained it's great reputation over the years. The staff are welcoming, the rooms clean and comfortable, and the rate is very reasonable. Continental breakfast is included in the main lobby and the front desk has a convenient snack shop attached to it. There's plenty of parking and hotel includes a huge indoor pool and jacuzzi! Easy to find off of Highway 287 and convenient to all eateries and downtown Decatur. Check out Frilly's cajun kitchen next door!More</t>
   </si>
   <si>
+    <t>jackevans52</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r399270621-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1091,9 @@
     <t>07/30/2016</t>
   </si>
   <si>
+    <t>A6396SVjoycec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r397650261-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1118,9 @@
     <t>This is the third time for us to stay at Ramada Decatur. It has all ways been a good stay. The staff is friendly, helpful and efficient .l We visit with family in the area so we will definitely stay again More</t>
   </si>
   <si>
+    <t>skny2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r395813283-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1016,6 +1136,9 @@
     <t>Responded July 24, 2016</t>
   </si>
   <si>
+    <t>Hurst B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r390116598-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1154,9 @@
     <t>Responded July 13, 2016</t>
   </si>
   <si>
+    <t>S2026T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r383260824-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1058,6 +1184,9 @@
     <t>Towels were great and was pleasantly surprised by the size and quality of the shower. Rooms smelt really clean and breakfast was great. The hallway smelt very animal by morning but it is a pet friendly hotel. More</t>
   </si>
   <si>
+    <t>ericrZ7573PZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r367846391-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1085,6 +1214,9 @@
     <t>Hotel looked nice and clean. The room was in good order; not brand new, but really clean. It was cheaper than most hotels in the area with the same quality as the more pricier ones. I would definitely stay there again. The breakfast was very limited. Only a few items. I went to Whataburger instead. More</t>
   </si>
   <si>
+    <t>gin1950</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r363743324-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1241,9 @@
     <t>We reserved a King room to accommodate us for a three (3) day stay.  We arrived at the hotel on Thursday evening and after checking in were assigned a room on the second floor. We asked where the elevators where located and were informed by the evening clerk that there was NO elevator!!!!  We were not happy but it was late and decided not to try and find another room at this late date and time.  After walking up two (2) flights of stairs with thee (3) days and Three nights of luggage, we found our room, opened the door and were met with the worst stench of pet urine and pet smell.  Luckily I ALWAYS travel with cans of Lysol!!!  After completely disinfecting the room and trying to kill the smell...we took showers and attempted to go to sleep but the Oder of the linens were horrendous...AGAIN ...we used the blankets we travel with.  The walls are SO thin that ALL night we were able to hear not only the peoples conversation in the next room but the gentleman's snoring!!! Needless to say we will NOT be staying at this location again!!!More</t>
   </si>
   <si>
+    <t>444nissab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r353856891-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1127,6 +1262,9 @@
     <t>Responded April 3, 2016</t>
   </si>
   <si>
+    <t>rhondac570</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r353116982-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1145,6 +1283,9 @@
     <t>Bonnie is absolutely AWESOME. She helped us with reservations that the dates were entered wrong so we had place to stay during our family loss. Last thing we needed to worry about after a 9 hour drive. Also Bonnie &amp; the management made u really feel at home &amp; they were extremely friendly &amp; caring. Internet never stays connected. Pet friendly tho. Pool was wonderful also. Thank you!More</t>
   </si>
   <si>
+    <t>C827YSmarkn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r350117597-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1325,9 @@
     <t>Responded January 20, 2016</t>
   </si>
   <si>
+    <t>vanotisp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r331893871-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1337,9 @@
     <t>12/10/2015</t>
   </si>
   <si>
+    <t>rogerhK7816DV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r331297028-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1208,6 +1355,9 @@
     <t>Responded December 8, 2015</t>
   </si>
   <si>
+    <t>Kevin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r325612014-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1385,9 @@
     <t>The staff was pleasant, the room was clean, the halls were quiet. We enjoyed the hot tub and the pool. For the price this hotel was awesome. The shower head was a little bit funky, but that is a minor issue.More</t>
   </si>
   <si>
+    <t>B1264WSrogerh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r325350342-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1409,9 @@
     <t>I have tried many of the mid budget motels in this immediate area and this one is the best. Always clean and smells good. More</t>
   </si>
   <si>
+    <t>travelerX3770WM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r324272451-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1430,9 @@
     <t>Responded November 5, 2015</t>
   </si>
   <si>
+    <t>Jan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r321378649-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1301,6 +1460,9 @@
     <t>We are in the US for 3 months and penny pinching where we can. We hadn't tried this chain yet and were pleasantly suprised for the price. On special for $66 that night, 2 double beds of good quality, fridge, microwave etc. Hotel amenities included a pool and laundromat which is nice when on the road for so long. Continental breakfast was free and suprisingly included bacon, sausage, eggs as well as the usual fare. Was not expecting that. This was just an overnight stop for us but great service, really good room and renovated bathrooms. Definitely value for money and I would recommend it to anyone. I would class it as better then Motel 6, Extended Stay and Super 8 but it is still in that budget range. If you expect valet and room service this may not be for you. For budget conscious and family, great tidy little place. Of note they also have a little food store with essentials if you don't want to head out. Lots of fast food options in walking distance. More</t>
   </si>
   <si>
+    <t>robertwH2305LG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r319953889-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +1487,9 @@
     <t>I had a very pleasant stay. My room was very clean and the desk people were very helpful. I enjoyed my stay.More</t>
   </si>
   <si>
+    <t>Alan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r315117510-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +1517,9 @@
     <t>Stayed over night here. Came in at a bit past 9 and the lady on the desk was as nice as could beRoom was clean, breakfast was ready early and certainly adequate A bargain in my opinion and wife even thought it was good for her because she likes a bit pricey hotels normallyMore</t>
   </si>
   <si>
+    <t>Gerard R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r307356946-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1376,6 +1544,9 @@
     <t>The Ramada Decatur is showing signs that it is one of the older motels in the Ramada family. It's not like it is un-maintained, it's just not a new showplace either. Room was fairly spacious, bed was comfortable. Was a very affordable, comfortable option in Decatur.More</t>
   </si>
   <si>
+    <t>O666WZheatherm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r303665092-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1388,6 +1559,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Andy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r296311953-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1397,6 +1571,9 @@
     <t>08/06/2015</t>
   </si>
   <si>
+    <t>671trueb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r291302456-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1415,6 +1592,9 @@
     <t>Responded July 24, 2015</t>
   </si>
   <si>
+    <t>rosemaryl531</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r289157553-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1439,6 +1619,9 @@
     <t>For the past ten years or more I have stayed once a year for a week at Ramada Decatur while I visit relatives in the area.  Each visit I find the rooms clean and updated.  The motel is quiet and safe.  The manager and staff are friendly and helpful.  More</t>
   </si>
   <si>
+    <t>BostonsAboard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r282975641-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1466,6 +1649,9 @@
     <t>We love the Ramada in Decatur. The indor pool is warm, the hot tub is hot, and the breakfast is hotter. Rooms are nice, staff is super friendly. 24 hr sundries at front desk are convenient and affordable. All in all, a great place to stay.More</t>
   </si>
   <si>
+    <t>Ron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r279155138-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1679,9 @@
     <t>We have stayed here every year for the past eight years. Whether once a year or more, the staff is still mostly intact from our first stay and they treat us well. They know which room we like and our needs. They are pleasant...almost like family.   More</t>
   </si>
   <si>
+    <t>Roger B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r277384499-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1520,6 +1709,9 @@
     <t>This was our second stay that this particular hotel.  We enjoyed the first time so made reservations to stay again when our favorite sporting event was in the area.  Room was clean, close to where we needed to be for our event and the price was fantastic!More</t>
   </si>
   <si>
+    <t>Jewelp123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r267094709-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1532,6 +1724,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Bj T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r261333974-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1556,6 +1751,9 @@
     <t>I had to be in town for a family situation.  It was myself and my two sixteen year old daughters.  I was in and out of the hotel to the hospital for those couple of days.  My girls were safe and the staff was outstanding.  Unfortunately, I am unable to recall the names of the two in particular that were above and beyond, but it was the lady that was working on that Friday the 19th that we checked in at around 6 or 7 pm and the gentleman that worked later that night.  They were both so great and kind.  I felt like they looked out for the girls knowing I was in and out,  We will be back to stay again. More</t>
   </si>
   <si>
+    <t>PAM P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r259736655-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1769,9 @@
     <t>Responded March 19, 2015</t>
   </si>
   <si>
+    <t>Kathryn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r258845059-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1595,6 +1796,9 @@
     <t>The front desk folks were definitely first class. So hepful and kind to me and my little dog. Breakfast was well stocked with many options.  If you complain it means you cannot be pleased. All areas were clean and well appointed throughout the entire facility.  Look forward to staying on my return trip. Thanks Ramada Inn. More</t>
   </si>
   <si>
+    <t>Kenneth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r255997488-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1826,9 @@
     <t>This is a wonderful place to stay. Wish all properties were this nice. 4th time to stay here. Will stay here again in a few days if the weather allows. More</t>
   </si>
   <si>
+    <t>Marsha M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r254762064-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1646,6 +1853,9 @@
     <t>Nice &amp; clean - Great they had a little area to sell food drinks &amp; sundries that is open 24 hours. The breakfast was good not just hot waffles.  they also had sausage, bacon &amp; gravy.  Overall stay was great. More</t>
   </si>
   <si>
+    <t>735angelae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r249194593-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1703,6 +1913,9 @@
     <t>12/28/2014</t>
   </si>
   <si>
+    <t>LaTonya H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r240992168-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1724,6 +1937,9 @@
     <t>With this being a very economical hotel I was rather please with the service, room, bedding, extra amenities. The hotel is in a great location because it's very close to EVERYTHING! The staff is warm and caring. I was in Decatur for a trip related to school. They were really flexible with my check-in time for I was coming from another part of Texas. The breakfast is good with healthy choices available.  My daughter and I was pleased with our stay.More</t>
   </si>
   <si>
+    <t>Cindy F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r233250310-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1751,6 +1967,9 @@
     <t>Our Stay at the Ramada in Decatur Texas was very pleasant. The people are very nice in Decatur &amp; at the Ramada. Ramada is very close to everything you need from food to shopping &amp; site seeing. More</t>
   </si>
   <si>
+    <t>Matthew C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r231963649-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1772,6 +1991,9 @@
     <t>Ac Unit in the room was not working . Called management that night.spoke to them in the morning. They said they would check it..didn't offer a comp for being hot all night. Pool and hot tub was dirty with dead bugs floating in the water. Went down to get breakfast and caught housekeeper eating the last pieces of bacon.More</t>
   </si>
   <si>
+    <t>Dale T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r230794275-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1790,6 +2012,9 @@
     <t>This is a very economical hotel, so I was surprised by the quality.  The rooms are a reasonable size, with extra amenities (microwave, refrigerator, coffee maker).  Free wifi.  Some rooms have sitting areas.  The Breakfast is quite good, with both hot and cold foods.  Staff is very friendly and helpful.  Great indoor pool.  But the best thing about this hotel is the shower heads!  You can adjust them for a massage, and it is great!More</t>
   </si>
   <si>
+    <t>mattaprylhaynes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r217886398-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1814,6 +2039,9 @@
     <t>Super friendly night and morning staff. We stayed on a weekend and I was very, and pleasantly, surprised at how quiet everything was. We got a great night's rest. Would recommend this place and would definitely stay here again. Great price as well. More</t>
   </si>
   <si>
+    <t>Lee H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r214485228-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1826,6 +2054,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Kristine H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r213333058-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1847,6 +2078,9 @@
     <t>We really enjoyed our stay, we were there for four days.  The hotel and room were clean, the staff friendly and professional. The location is close to everything.  I especially enjoyed the indoor heated pool and spa!  The hotel is pet friendly and they take extra care to clean rooms after a pet has stayed.   There was a very nice complimentary breakfast area with a nice selection of food and fruit to include hot waffles, eggs, sausage, gravy and biscuits. There was also a decent selection of frozen foods, ice cream, juices and snacks available at the desk for purchase, with a  microwave and refrigerator in the room it was really nice not to have to go out after a long day. We will go there again when we visit Decatur in a few months.More</t>
   </si>
   <si>
+    <t>Cynthia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r210858579-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1871,6 +2105,9 @@
     <t>This hotel is very CLEAN. The bed was comfortable. There was a wide variety to choose from at breakfast. The staff was friendly and helpful. When we asked about places to eat and things that we needed, the staff was able to direct us where to go. This hotel also has an indoor pool and hot tub which made it very easy to relax before sleep. I would definitely recommend the Ramada in Decatur, TX. You get a great nights stay for the money, (which we also thought was reasonable).More</t>
   </si>
   <si>
+    <t>lordfootball</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r210765199-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1886,6 +2123,9 @@
     <t>very reasonable rates - good breakfast ,w/ waffles variety of bagel &amp; muffin choices juice coffee and even sausage and bacon - young lady switched us from upstairs to down after my wife mentioned my balky knee - very thoughtful and appreciated .More</t>
   </si>
   <si>
+    <t>splashtx556</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r210542495-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1901,6 +2141,9 @@
     <t xml:space="preserve">Went there for a parents night away. My wife asked the lady about her corporate discount and was told it would be only a dollar less, lady took cash payment then asked for a credit card for damages. Really? What damages? Im 50 wifes 41. So I refused. We got home to discover that we should have had an$11.00 discount. But rooms are nice. </t>
   </si>
   <si>
+    <t>The_Guy_In_Room_100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r209366844-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1928,6 +2171,9 @@
     <t>I'm a business traveler and I stay at this Ramada frequently.  I have many choices in the area but none are even close to this hotel.  The staff is very friendly and accommodating.  The breakfast is hard to beat.  It very clean and well kept.  I bring my wife and kids occasionally and the staff and owners treat us like family.  These folks care about your experience and it shows in their professionalism.More</t>
   </si>
   <si>
+    <t>Kimberly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r208598617-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1937,6 +2183,9 @@
     <t>06/02/2014</t>
   </si>
   <si>
+    <t>tryalsryder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r204033353-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1961,6 +2210,9 @@
     <t>We stayed here from a Priceline booking. The hotel was very good for the price we paid, and pet friendly. The room was clean and breakfast was stocked. Even at the end of breakfast when the sausage was out, the front desk man made some fresh for the people. We would stay here again. More</t>
   </si>
   <si>
+    <t>FLSTCI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r200806581-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -1973,6 +2225,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Larry G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r196356945-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2000,6 +2255,9 @@
     <t>Very nice facility, extremely courteous and helpful staff.  My room was nicely furnished, free wifi.  Refrigerator, Microwave, Coffee maker, Hair dryer, Iron and Ironing board, 40" flat panel TV.  Desk with executive style office chair. Indoor Swimming pool, Free Hot breakfast.  If I go back to Decatur, I will stay there.More</t>
   </si>
   <si>
+    <t>Jim R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r196343874-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2009,6 +2267,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Jason P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r192382881-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2030,6 +2291,9 @@
     <t>This room was perfect for what we needed. We were in the area for a family get together and just needed somewhere clean and comfortable to sleep in.  This room fit that need perfectly.  Nothing fancy, but very clean, easy to find and the staff was nice and friendly like you would expect from small town Texas. They even had biscuits and gravy for the continental breakfast. More</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r191861762-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2303,9 @@
     <t>01/23/2014</t>
   </si>
   <si>
+    <t>Lin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r190267329-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2063,6 +2330,9 @@
     <t>Being a smoker, appreciated availability of smoking room.  Staff was friendly and accommodating. Room was VERY convenient to parking lot.  Waffles better than other motels. All in all, very comfortable while moving to Decatur, TX.More</t>
   </si>
   <si>
+    <t>Paulette D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r188528205-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2075,12 +2345,18 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>VentureTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r188523063-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
     <t>188523063</t>
   </si>
   <si>
+    <t>Dianna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r187228473-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2108,6 +2384,9 @@
     <t>The room was clean, bed beyond comfortable, and service friendly. Thanks ramada! My husband and I were very close to family and it accomodated all our needs. I would definitely reccomend this hotel. My sister agrees.More</t>
   </si>
   <si>
+    <t>Pamela J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r180507184-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2126,6 +2405,9 @@
     <t>Responded October 28, 2013</t>
   </si>
   <si>
+    <t>gstodis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r180128362-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2150,6 +2432,9 @@
     <t>This hotel isn't in a very good spot, you'll have to drive everywhere you need to go. Its a very run down looking place, old smelly carpets throughout,  entire hotel smells of cigarettes including inside non-smoking rooms. Over the years repairs appear to have made using the old"duct tape and bailing wire " methods, no fitness center, lots of construction worker types making noise seem to stay often, truck drivers smoking in the hallway etc.....More</t>
   </si>
   <si>
+    <t>Travel D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r175365027-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2177,6 +2462,9 @@
     <t>The place was totally empty   I had my crew check in for a week and request bottom Flores because of only stairs to access upper flore.     They said nothing is available when the parking lot was totally empty.     Then a group of workers checked in and the lady gave them all bottom Flores.      The room was hot and the ac didn't work well and the room smelled like dog poop.   The staff was totally unfriendly and lied to my face.     Go somewhere else this place sucks.  And the wireless is slow and will not stream a one min YouTube video.          This place sucksMore</t>
   </si>
   <si>
+    <t>ronmajor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r171411322-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2195,6 +2483,9 @@
     <t>Responded August 11, 2013</t>
   </si>
   <si>
+    <t>Jackson C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r170772972-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2213,6 +2504,9 @@
     <t>This was my first stay at this Ramada in Decatur and it was very enjoyable. We only stayed one night but I could tell the staff was very attentive.Overall what will bring me back is exceptional customer service, clean rooms, good rates and great amenities. Make sure you bring swimming clothes because the indoor pool was a great way to relax in the morning.More</t>
   </si>
   <si>
+    <t>trichrome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r170634770-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2231,6 +2525,9 @@
     <t>We were visiting Decatur for the weekend, and chose the Ramada Inn - this was a great choice, as the location was very convenient and easy to find.  Nice looking property with plenty of parking, and the lobby was very clean and well-organized.  Staff was very friendly (Andy is great!) and we were able to book adjoining rooms for our family.  Rooms were very clean with plenty of space, and each room had a refrigerator and a microwave.  Beds were very comfortable, and we had a great night sleep.  Breakfast the next morning was a full HOT breakfast with bacon, sausages, eggs, and all different sorts of pastries/waffles, and the whole range of cereals/juices/milk.  Our kids also enjoyed the indoor swimming pool!  A fantastic experience overall, and we will be back again when we are in town.  HIGHLY recommend, a few other choices in town, but Ramada offers the BEST facilities, service, cleanliness,and hot breakfast.  We will be back soon!More</t>
   </si>
   <si>
+    <t>Suzanne H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r161807581-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2249,6 +2546,9 @@
     <t>Responded June 21, 2013</t>
   </si>
   <si>
+    <t>Richard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r160848341-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2256,6 +2556,9 @@
   </si>
   <si>
     <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>OKCPT</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r157838142-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
@@ -2303,6 +2606,9 @@
 I normally stay of LQ or some of the others but they were booked...I want to start by saying Decatur is a very small town with little choices on hotels so with that said the choices are limited and overall the room had four walls and a roof so there is a plus.Pro's:-Room was very large, set up like a suite and had 2 TV's and phones and full kitchen.-Whirlpool tub-Room was quiet other than the family of elephants upstairs dancing most of the early morning (but this is not a fault of the hotel)- Staff was VERY friendlyCon's-Shower was extremely dirty, the grout in the tile in the shower was very gross. I thought maybe it was just the color of the grout but I ran my fingernail across it and got a big glob of goop GAG!!- Hallways in the non-smoking wing was very strong smelling of smoke (Again can't fault the hotel for stupid people).-Access to the hotel was tricky if you are heading south on highway, no direct access you have to drive a couple miles down and come back just to reach it, don't miss the small turn in or you have to drive a bit the other way and make that whole loop again :(-For the condition and age of the room I think the cost was a it high. -Very squeaky bed. I normally stay of LQ or some of the others but they were booked so I took this hotel based on the reviews which I think might be a bit overly positive or I just got a bad room.Would I stay gain? Only if I could not find a room at one of the other newer hotels.More</t>
   </si>
   <si>
+    <t>Chelleell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r150455817-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2327,6 +2633,9 @@
     <t>I 120% recommend this hotel to anyone and everyone! My husband travels with work so we are always staying in motels, never have I ever stayed at a place that felt like home. The receptionist Darlene was the nicest person ever! She remembered our names and spoke to us ever morning . The owners were the same they all just act like they know you. We stayed 2 weeks and I was sad to leave... Can't wait to get back thereMore</t>
   </si>
   <si>
+    <t>WhoeverYouAre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r143627451-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2348,6 +2657,9 @@
     <t>Maybe it is. Staff was helpful with directions, with printing stuff from the computer (one computer in the lobby - also WiFi which works fine even in the room), with suggestions for restaurants, etc. The breakfast was good including apples, bananas, cereal, waffles (make it yourself), sausage and cheese patties, bacon, coffee and juice. The swimming pool was nice and the water was clean. The room includes air conditioning, microwave oven and refrigerator. Very comfortable bed, and not super expensive considering everything.More</t>
   </si>
   <si>
+    <t>GLORIA S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r143520609-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2357,6 +2669,9 @@
     <t>10/23/2012</t>
   </si>
   <si>
+    <t>JEFF E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r142504979-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2366,6 +2681,9 @@
     <t>10/10/2012</t>
   </si>
   <si>
+    <t>JonJon Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r137127852-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2387,6 +2705,9 @@
     <t>Was on business in Decatur and found this gem of a place. Others said it already, but it has a nice indoor pool and hottub. Great place to relax after a day in the field. I came in July and there were tasty peaches on the fruit trees outside, so I enjoyed those in the nice lobby area. Next time I might bring the family for leisure and maybe the persimmons will be ripe too haha.More</t>
   </si>
   <si>
+    <t>kristi c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r136858198-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2408,6 +2729,9 @@
     <t>After being stranded in Decatur after an auto accident I needed a place to stay with my children for the night. The Assistant Manager, Darlene, was more than accommodating and very kind. She made my situation a little brighter. The children enjoyed the indoor heated pool and breakfast the next morning was great. I highly recommend this hotel to anyone passing through Decatur!More</t>
   </si>
   <si>
+    <t>TexasTravelbug4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r38270841-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2426,6 +2750,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>deekaykay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r30388490-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
   </si>
   <si>
@@ -2439,6 +2766,9 @@
   </si>
   <si>
     <t>front dest is very niceon morring shift,hotel is very clean,the staff makes you fill like you are home.</t>
+  </si>
+  <si>
+    <t>twomikea</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d107162-r13649614-Ramada_by_Wyndham_Decatur-Decatur_Texas.html</t>
@@ -2964,43 +3294,47 @@
       <c r="A2" t="n">
         <v>37548</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>68944</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3014,50 +3348,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37548</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174874</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3075,50 +3413,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37548</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174875</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3142,50 +3484,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37548</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>25366</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3201,56 +3547,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37548</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>34309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -3268,50 +3618,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37548</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>51878</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
         <v>85</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3323,56 +3677,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37548</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>19648</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3388,56 +3746,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37548</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174876</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>101</v>
       </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3455,56 +3817,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37548</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174877</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3526,56 +3892,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37548</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174878</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3597,56 +3967,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37548</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>39247</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3668,54 +4042,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37548</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174879</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3737,56 +4115,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37548</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174880</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3808,56 +4190,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37548</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>3440</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3869,56 +4255,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37548</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174881</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3940,54 +4330,58 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37548</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174882</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -4009,56 +4403,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37548</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>8437</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4070,56 +4468,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37548</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174883</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4135,54 +4537,58 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37548</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174884</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4204,56 +4610,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37548</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174885</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4275,56 +4685,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37548</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174886</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4336,56 +4750,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37548</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174887</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -4407,56 +4825,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37548</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174888</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4468,54 +4890,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37548</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174889</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4537,56 +4963,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X25" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y25" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37548</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174890</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4602,56 +5032,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37548</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>84610</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4663,56 +5097,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="X27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37548</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>174891</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4734,54 +5172,58 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="X28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37548</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>38063</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4803,56 +5245,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="X29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="Y29" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37548</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>174892</v>
+      </c>
+      <c r="C30" t="s">
+        <v>278</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4874,54 +5320,58 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37548</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174893</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4943,54 +5393,58 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37548</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>31829</v>
+      </c>
+      <c r="C32" t="s">
+        <v>295</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -5012,56 +5466,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="X32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Y32" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37548</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174894</v>
+      </c>
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="J33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -5083,54 +5541,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="X33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37548</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174895</v>
+      </c>
+      <c r="C34" t="s">
+        <v>311</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5152,54 +5614,58 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="X34" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="Y34" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37548</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5221,56 +5687,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="X35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="Y35" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37548</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>38063</v>
+      </c>
+      <c r="C36" t="s">
+        <v>271</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5288,54 +5758,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="X36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37548</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>174896</v>
+      </c>
+      <c r="C37" t="s">
+        <v>328</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="J37" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="O37" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5357,47 +5831,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="X37" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="Y37" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37548</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174897</v>
+      </c>
+      <c r="C38" t="s">
+        <v>334</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -5414,56 +5892,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="X38" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="Y38" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37548</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174898</v>
+      </c>
+      <c r="C39" t="s">
+        <v>343</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5481,54 +5963,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="X39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37548</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174899</v>
+      </c>
+      <c r="C40" t="s">
+        <v>353</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="J40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5550,56 +6036,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="X40" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37548</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>174900</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5621,54 +6111,58 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="X41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="Y41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37548</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>174901</v>
+      </c>
+      <c r="C42" t="s">
+        <v>366</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -5690,54 +6184,58 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="X42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="Y42" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37548</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174902</v>
+      </c>
+      <c r="C43" t="s">
+        <v>372</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O43" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5759,56 +6257,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37548</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>174903</v>
+      </c>
+      <c r="C44" t="s">
+        <v>378</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="O44" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5830,56 +6332,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37548</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>174904</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5901,56 +6407,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="X45" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="Y45" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37548</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174905</v>
+      </c>
+      <c r="C46" t="s">
+        <v>398</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="K46" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="L46" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5966,54 +6476,58 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="X46" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37548</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174906</v>
+      </c>
+      <c r="C47" t="s">
+        <v>407</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -6035,56 +6549,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="X47" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="Y47" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37548</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174907</v>
+      </c>
+      <c r="C48" t="s">
+        <v>414</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6106,56 +6624,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="X48" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="Y48" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37548</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174908</v>
+      </c>
+      <c r="C49" t="s">
+        <v>421</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="J49" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6177,54 +6699,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="X49" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="Y49" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37548</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>174877</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="J50" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6238,54 +6764,58 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="X50" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="Y50" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37548</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>174909</v>
+      </c>
+      <c r="C51" t="s">
+        <v>435</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="J51" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6299,54 +6829,58 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="X51" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="Y51" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37548</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>174910</v>
+      </c>
+      <c r="C52" t="s">
+        <v>439</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="J52" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="O52" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6360,56 +6894,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="X52" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="Y52" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37548</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>16694</v>
+      </c>
+      <c r="C53" t="s">
+        <v>445</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="J53" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="K53" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="L53" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6427,56 +6965,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="X53" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="Y53" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37548</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>174911</v>
+      </c>
+      <c r="C54" t="s">
+        <v>455</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="J54" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="K54" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="L54" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="O54" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6498,54 +7040,58 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="X54" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="Y54" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37548</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>99993</v>
+      </c>
+      <c r="C55" t="s">
+        <v>463</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="J55" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -6567,56 +7113,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="X55" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="Y55" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37548</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>63289</v>
+      </c>
+      <c r="C56" t="s">
+        <v>470</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J56" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="K56" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="L56" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="O56" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6628,56 +7178,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="X56" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="Y56" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37548</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>174912</v>
+      </c>
+      <c r="C57" t="s">
+        <v>480</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="J57" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="K57" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="L57" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6699,56 +7253,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="X57" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="Y57" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37548</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>41377</v>
+      </c>
+      <c r="C58" t="s">
+        <v>489</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="J58" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="K58" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="L58" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6760,56 +7318,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="X58" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="Y58" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37548</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>47258</v>
+      </c>
+      <c r="C59" t="s">
+        <v>499</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="J59" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="K59" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="L59" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="O59" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6821,54 +7383,58 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="X59" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="Y59" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37548</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>174913</v>
+      </c>
+      <c r="C60" t="s">
+        <v>508</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="J60" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6880,54 +7446,58 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="X60" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37548</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>69512</v>
+      </c>
+      <c r="C61" t="s">
+        <v>513</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="J61" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="O61" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6949,54 +7519,58 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="X61" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37548</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>174914</v>
+      </c>
+      <c r="C62" t="s">
+        <v>517</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="J62" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="O62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7018,56 +7592,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="X62" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="Y62" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37548</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>174915</v>
+      </c>
+      <c r="C63" t="s">
+        <v>524</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>465</v>
+        <v>525</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="J63" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="K63" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="L63" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="O63" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7089,56 +7667,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="X63" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="Y63" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37548</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>174916</v>
+      </c>
+      <c r="C64" t="s">
+        <v>533</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="J64" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="K64" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="L64" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="O64" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7150,56 +7732,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="X64" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="Y64" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37548</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>15058</v>
+      </c>
+      <c r="C65" t="s">
+        <v>543</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="J65" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="K65" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="L65" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="O65" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7221,56 +7807,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="X65" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="Y65" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37548</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>36014</v>
+      </c>
+      <c r="C66" t="s">
+        <v>553</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="J66" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="K66" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="L66" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="O66" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7292,54 +7882,58 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="X66" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="Y66" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37548</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>174917</v>
+      </c>
+      <c r="C67" t="s">
+        <v>563</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="J67" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7361,56 +7955,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="X67" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="Y67" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37548</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>174918</v>
+      </c>
+      <c r="C68" t="s">
+        <v>568</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="J68" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="K68" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="L68" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="O68" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7432,54 +8030,58 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="X68" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="Y68" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37548</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>174919</v>
+      </c>
+      <c r="C69" t="s">
+        <v>577</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="J69" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="O69" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7501,56 +8103,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="X69" t="s">
-        <v>516</v>
+        <v>582</v>
       </c>
       <c r="Y69" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37548</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>4837</v>
+      </c>
+      <c r="C70" t="s">
+        <v>583</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="J70" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="K70" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="L70" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="O70" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7572,56 +8178,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>522</v>
+        <v>589</v>
       </c>
       <c r="X70" t="s">
-        <v>523</v>
+        <v>590</v>
       </c>
       <c r="Y70" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37548</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C71" t="s">
+        <v>592</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="J71" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="K71" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="L71" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="O71" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7643,56 +8253,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="X71" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="Y71" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37548</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>63709</v>
+      </c>
+      <c r="C72" t="s">
+        <v>602</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="J72" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="K72" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="L72" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="O72" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7714,56 +8328,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="X72" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="Y72" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37548</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>174920</v>
+      </c>
+      <c r="C73" t="s">
+        <v>611</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>542</v>
+        <v>612</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>543</v>
+        <v>613</v>
       </c>
       <c r="J73" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
       <c r="K73" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="L73" t="s">
-        <v>546</v>
+        <v>616</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>547</v>
+        <v>617</v>
       </c>
       <c r="O73" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7785,56 +8403,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="X73" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="Y73" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37548</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>174890</v>
+      </c>
+      <c r="C74" t="s">
+        <v>261</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="J74" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="K74" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="L74" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="O74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7852,54 +8474,58 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="X74" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="Y74" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37548</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>174877</v>
+      </c>
+      <c r="C75" t="s">
+        <v>121</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="J75" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="O75" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7921,56 +8547,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="X75" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="Y75" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37548</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>174921</v>
+      </c>
+      <c r="C76" t="s">
+        <v>631</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="J76" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="K76" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="L76" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="O76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7988,56 +8618,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="X76" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="Y76" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37548</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>44946</v>
+      </c>
+      <c r="C77" t="s">
+        <v>639</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="J77" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="K77" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="L77" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="O77" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8059,56 +8693,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="X77" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="Y77" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37548</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>7202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>649</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="J78" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="K78" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="L78" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="O78" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8120,56 +8758,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="X78" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="Y78" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37548</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>63456</v>
+      </c>
+      <c r="C79" t="s">
+        <v>657</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="J79" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="K79" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="L79" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="O79" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -8187,47 +8829,51 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="X79" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="Y79" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37548</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>174922</v>
+      </c>
+      <c r="C80" t="s">
+        <v>664</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
       <c r="J80" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="K80" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="L80" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
@@ -8244,54 +8890,58 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="X80" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="Y80" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37548</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>4346</v>
+      </c>
+      <c r="C81" t="s">
+        <v>673</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
       <c r="J81" t="s">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>601</v>
+        <v>677</v>
       </c>
       <c r="O81" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8313,56 +8963,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="X81" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="Y81" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37548</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>105791</v>
+      </c>
+      <c r="C82" t="s">
+        <v>678</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="J82" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="K82" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="L82" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8384,56 +9038,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="X82" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="Y82" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37548</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>10211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>686</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>609</v>
+        <v>687</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="J83" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="K83" t="s">
-        <v>612</v>
+        <v>690</v>
       </c>
       <c r="L83" t="s">
-        <v>613</v>
+        <v>691</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="O83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8455,56 +9113,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="X83" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="Y83" t="s">
-        <v>616</v>
+        <v>694</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37548</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>174923</v>
+      </c>
+      <c r="C84" t="s">
+        <v>695</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>617</v>
+        <v>696</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>618</v>
+        <v>697</v>
       </c>
       <c r="J84" t="s">
-        <v>611</v>
+        <v>689</v>
       </c>
       <c r="K84" t="s">
-        <v>619</v>
+        <v>698</v>
       </c>
       <c r="L84" t="s">
-        <v>620</v>
+        <v>699</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="O84" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8526,56 +9188,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>614</v>
+        <v>692</v>
       </c>
       <c r="X84" t="s">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="Y84" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37548</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>174924</v>
+      </c>
+      <c r="C85" t="s">
+        <v>701</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>622</v>
+        <v>702</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
       <c r="J85" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="K85" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="L85" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="O85" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8589,50 +9255,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>626</v>
+        <v>706</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37548</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>174925</v>
+      </c>
+      <c r="C86" t="s">
+        <v>707</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="J86" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="K86" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
       <c r="L86" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="O86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8654,54 +9324,58 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="X86" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="Y86" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37548</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>4734</v>
+      </c>
+      <c r="C87" t="s">
+        <v>717</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>637</v>
+        <v>719</v>
       </c>
       <c r="J87" t="s">
-        <v>638</v>
+        <v>720</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="O87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8723,56 +9397,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="X87" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="Y87" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37548</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>174926</v>
+      </c>
+      <c r="C88" t="s">
+        <v>721</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
       <c r="J88" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="K88" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="L88" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
       <c r="O88" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8784,54 +9462,58 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="X88" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="Y88" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37548</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>174927</v>
+      </c>
+      <c r="C89" t="s">
+        <v>730</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="J89" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>650</v>
+        <v>734</v>
       </c>
       <c r="O89" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8853,56 +9535,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="X89" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
       <c r="Y89" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37548</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>40343</v>
+      </c>
+      <c r="C90" t="s">
+        <v>735</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>651</v>
+        <v>736</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>652</v>
+        <v>737</v>
       </c>
       <c r="J90" t="s">
-        <v>653</v>
+        <v>738</v>
       </c>
       <c r="K90" t="s">
-        <v>654</v>
+        <v>739</v>
       </c>
       <c r="L90" t="s">
-        <v>655</v>
+        <v>740</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>656</v>
+        <v>741</v>
       </c>
       <c r="O90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8924,54 +9610,58 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="X90" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="Y90" t="s">
-        <v>659</v>
+        <v>744</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37548</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>602</v>
+      </c>
+      <c r="C91" t="s">
+        <v>745</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>660</v>
+        <v>746</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>661</v>
+        <v>747</v>
       </c>
       <c r="J91" t="s">
-        <v>653</v>
+        <v>738</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>662</v>
+        <v>748</v>
       </c>
       <c r="O91" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8993,56 +9683,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="X91" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="Y91" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37548</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>17022</v>
+      </c>
+      <c r="C92" t="s">
+        <v>749</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>663</v>
+        <v>750</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="J92" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="K92" t="s">
-        <v>666</v>
+        <v>753</v>
       </c>
       <c r="L92" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="O92" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9064,54 +9758,58 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="X92" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="Y92" t="s">
-        <v>669</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37548</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C93" t="s">
+        <v>757</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>670</v>
+        <v>758</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>671</v>
+        <v>759</v>
       </c>
       <c r="J93" t="s">
-        <v>672</v>
+        <v>760</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="O93" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9133,56 +9831,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>657</v>
+        <v>742</v>
       </c>
       <c r="X93" t="s">
-        <v>658</v>
+        <v>743</v>
       </c>
       <c r="Y93" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37548</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>174928</v>
+      </c>
+      <c r="C94" t="s">
+        <v>761</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>673</v>
+        <v>762</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>674</v>
+        <v>763</v>
       </c>
       <c r="J94" t="s">
-        <v>675</v>
+        <v>764</v>
       </c>
       <c r="K94" t="s">
-        <v>676</v>
+        <v>765</v>
       </c>
       <c r="L94" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="O94" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9204,54 +9906,58 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="X94" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="Y94" t="s">
-        <v>680</v>
+        <v>769</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37548</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>47865</v>
+      </c>
+      <c r="C95" t="s">
+        <v>770</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="J95" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="K95" t="s"/>
       <c r="L95" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="O95" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9273,54 +9979,58 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="X95" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="Y95" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37548</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>174929</v>
+      </c>
+      <c r="C96" t="s">
+        <v>775</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>685</v>
+        <v>776</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>686</v>
+        <v>777</v>
       </c>
       <c r="J96" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="K96" t="s"/>
       <c r="L96" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9342,56 +10052,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="X96" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="Y96" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37548</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>174930</v>
+      </c>
+      <c r="C97" t="s">
+        <v>778</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>687</v>
+        <v>779</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>688</v>
+        <v>780</v>
       </c>
       <c r="J97" t="s">
-        <v>689</v>
+        <v>781</v>
       </c>
       <c r="K97" t="s">
-        <v>690</v>
+        <v>782</v>
       </c>
       <c r="L97" t="s">
-        <v>691</v>
+        <v>783</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>692</v>
+        <v>784</v>
       </c>
       <c r="O97" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9413,54 +10127,58 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>693</v>
+        <v>785</v>
       </c>
       <c r="X97" t="s">
-        <v>694</v>
+        <v>786</v>
       </c>
       <c r="Y97" t="s">
-        <v>695</v>
+        <v>787</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37548</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>115327</v>
+      </c>
+      <c r="C98" t="s">
+        <v>788</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>696</v>
+        <v>789</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>697</v>
+        <v>790</v>
       </c>
       <c r="J98" t="s">
-        <v>698</v>
+        <v>791</v>
       </c>
       <c r="K98" t="s"/>
       <c r="L98" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>699</v>
+        <v>792</v>
       </c>
       <c r="O98" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9480,47 +10198,51 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>700</v>
+        <v>793</v>
       </c>
       <c r="X98" t="s">
-        <v>701</v>
+        <v>794</v>
       </c>
       <c r="Y98" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37548</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>174931</v>
+      </c>
+      <c r="C99" t="s">
+        <v>795</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>702</v>
+        <v>796</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>703</v>
+        <v>797</v>
       </c>
       <c r="J99" t="s">
-        <v>704</v>
+        <v>798</v>
       </c>
       <c r="K99" t="s">
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="L99" t="s">
-        <v>706</v>
+        <v>800</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
@@ -9547,56 +10269,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>707</v>
+        <v>801</v>
       </c>
       <c r="X99" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
       <c r="Y99" t="s">
-        <v>709</v>
+        <v>803</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>37548</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>174932</v>
+      </c>
+      <c r="C100" t="s">
+        <v>804</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>710</v>
+        <v>805</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="J100" t="s">
-        <v>712</v>
+        <v>807</v>
       </c>
       <c r="K100" t="s">
-        <v>713</v>
+        <v>808</v>
       </c>
       <c r="L100" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>715</v>
+        <v>810</v>
       </c>
       <c r="O100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P100" t="n">
         <v>1</v>
@@ -9618,54 +10344,58 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>716</v>
+        <v>811</v>
       </c>
       <c r="X100" t="s">
-        <v>717</v>
+        <v>812</v>
       </c>
       <c r="Y100" t="s">
-        <v>718</v>
+        <v>813</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37548</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>174933</v>
+      </c>
+      <c r="C101" t="s">
+        <v>814</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>719</v>
+        <v>815</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>720</v>
+        <v>816</v>
       </c>
       <c r="J101" t="s">
-        <v>721</v>
+        <v>817</v>
       </c>
       <c r="K101" t="s"/>
       <c r="L101" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>722</v>
+        <v>818</v>
       </c>
       <c r="O101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9687,47 +10417,51 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="X101" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="Y101" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>37548</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>174934</v>
+      </c>
+      <c r="C102" t="s">
+        <v>821</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
       <c r="J102" t="s">
-        <v>727</v>
+        <v>824</v>
       </c>
       <c r="K102" t="s">
-        <v>728</v>
+        <v>825</v>
       </c>
       <c r="L102" t="s">
-        <v>729</v>
+        <v>826</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
@@ -9754,56 +10488,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="X102" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="Y102" t="s">
-        <v>730</v>
+        <v>827</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>37548</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>174935</v>
+      </c>
+      <c r="C103" t="s">
+        <v>828</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>731</v>
+        <v>829</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>732</v>
+        <v>830</v>
       </c>
       <c r="J103" t="s">
-        <v>733</v>
+        <v>831</v>
       </c>
       <c r="K103" t="s">
-        <v>734</v>
+        <v>832</v>
       </c>
       <c r="L103" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>722</v>
+        <v>818</v>
       </c>
       <c r="O103" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9825,54 +10563,58 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="X103" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="Y103" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>37548</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>13628</v>
+      </c>
+      <c r="C104" t="s">
+        <v>835</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>737</v>
+        <v>836</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>738</v>
+        <v>837</v>
       </c>
       <c r="J104" t="s">
-        <v>739</v>
+        <v>838</v>
       </c>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>740</v>
+        <v>839</v>
       </c>
       <c r="O104" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9894,54 +10636,58 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="X104" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
       <c r="Y104" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>37548</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>677</v>
+      </c>
+      <c r="C105" t="s">
+        <v>842</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>743</v>
+        <v>843</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>744</v>
+        <v>844</v>
       </c>
       <c r="J105" t="s">
-        <v>745</v>
+        <v>845</v>
       </c>
       <c r="K105" t="s"/>
       <c r="L105" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>740</v>
+        <v>839</v>
       </c>
       <c r="O105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9963,56 +10709,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="X105" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
       <c r="Y105" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>37548</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>126416</v>
+      </c>
+      <c r="C106" t="s">
+        <v>846</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>746</v>
+        <v>847</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>747</v>
+        <v>848</v>
       </c>
       <c r="J106" t="s">
-        <v>748</v>
+        <v>849</v>
       </c>
       <c r="K106" t="s">
-        <v>749</v>
+        <v>850</v>
       </c>
       <c r="L106" t="s">
-        <v>750</v>
+        <v>851</v>
       </c>
       <c r="M106" t="n">
         <v>3</v>
       </c>
       <c r="N106" t="s">
-        <v>751</v>
+        <v>852</v>
       </c>
       <c r="O106" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P106" t="n">
         <v>3</v>
@@ -10034,47 +10784,51 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>741</v>
+        <v>840</v>
       </c>
       <c r="X106" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
       <c r="Y106" t="s">
-        <v>752</v>
+        <v>853</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>37548</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>174936</v>
+      </c>
+      <c r="C107" t="s">
+        <v>854</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>753</v>
+        <v>855</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>754</v>
+        <v>856</v>
       </c>
       <c r="J107" t="s">
-        <v>755</v>
+        <v>857</v>
       </c>
       <c r="K107" t="s">
-        <v>756</v>
+        <v>858</v>
       </c>
       <c r="L107" t="s">
-        <v>757</v>
+        <v>859</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
@@ -10101,56 +10855,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="X107" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="Y107" t="s">
-        <v>760</v>
+        <v>862</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>37548</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>174937</v>
+      </c>
+      <c r="C108" t="s">
+        <v>863</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>761</v>
+        <v>864</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>762</v>
+        <v>865</v>
       </c>
       <c r="J108" t="s">
-        <v>763</v>
+        <v>866</v>
       </c>
       <c r="K108" t="s">
-        <v>764</v>
+        <v>867</v>
       </c>
       <c r="L108" t="s">
-        <v>765</v>
+        <v>868</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="O108" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -10172,54 +10930,58 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="X108" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="Y108" t="s">
-        <v>767</v>
+        <v>870</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>37548</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>174938</v>
+      </c>
+      <c r="C109" t="s">
+        <v>871</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>768</v>
+        <v>872</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>769</v>
+        <v>873</v>
       </c>
       <c r="J109" t="s">
-        <v>770</v>
+        <v>874</v>
       </c>
       <c r="K109" t="s"/>
       <c r="L109" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="O109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10241,54 +11003,58 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="X109" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="Y109" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>37548</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>174939</v>
+      </c>
+      <c r="C110" t="s">
+        <v>875</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>771</v>
+        <v>876</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>772</v>
+        <v>877</v>
       </c>
       <c r="J110" t="s">
-        <v>773</v>
+        <v>878</v>
       </c>
       <c r="K110" t="s"/>
       <c r="L110" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="O110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10310,56 +11076,60 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="X110" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="Y110" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>37548</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>174940</v>
+      </c>
+      <c r="C111" t="s">
+        <v>879</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>774</v>
+        <v>880</v>
       </c>
       <c r="G111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>775</v>
+        <v>881</v>
       </c>
       <c r="J111" t="s">
-        <v>776</v>
+        <v>882</v>
       </c>
       <c r="K111" t="s">
-        <v>777</v>
+        <v>883</v>
       </c>
       <c r="L111" t="s">
-        <v>778</v>
+        <v>884</v>
       </c>
       <c r="M111" t="n">
         <v>5</v>
       </c>
       <c r="N111" t="s">
-        <v>779</v>
+        <v>885</v>
       </c>
       <c r="O111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P111" t="n">
         <v>5</v>
@@ -10381,56 +11151,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="X111" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="Y111" t="s">
-        <v>780</v>
+        <v>886</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>37548</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>174941</v>
+      </c>
+      <c r="C112" t="s">
+        <v>887</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>781</v>
+        <v>888</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>782</v>
+        <v>889</v>
       </c>
       <c r="J112" t="s">
-        <v>783</v>
+        <v>890</v>
       </c>
       <c r="K112" t="s">
-        <v>784</v>
+        <v>891</v>
       </c>
       <c r="L112" t="s">
-        <v>785</v>
+        <v>892</v>
       </c>
       <c r="M112" t="n">
         <v>5</v>
       </c>
       <c r="N112" t="s">
-        <v>786</v>
+        <v>893</v>
       </c>
       <c r="O112" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P112" t="n">
         <v>5</v>
@@ -10452,56 +11226,60 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>758</v>
+        <v>860</v>
       </c>
       <c r="X112" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="Y112" t="s">
-        <v>787</v>
+        <v>894</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>37548</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>174942</v>
+      </c>
+      <c r="C113" t="s">
+        <v>895</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>788</v>
+        <v>896</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>789</v>
+        <v>897</v>
       </c>
       <c r="J113" t="s">
-        <v>790</v>
+        <v>898</v>
       </c>
       <c r="K113" t="s">
-        <v>791</v>
+        <v>899</v>
       </c>
       <c r="L113" t="s">
-        <v>792</v>
+        <v>900</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>793</v>
+        <v>901</v>
       </c>
       <c r="O113" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P113" t="n">
         <v>3</v>
@@ -10525,41 +11303,45 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>792</v>
+        <v>900</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>37548</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>174943</v>
+      </c>
+      <c r="C114" t="s">
+        <v>902</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>794</v>
+        <v>903</v>
       </c>
       <c r="G114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>795</v>
+        <v>904</v>
       </c>
       <c r="J114" t="s">
-        <v>796</v>
+        <v>905</v>
       </c>
       <c r="K114" t="s">
-        <v>797</v>
+        <v>906</v>
       </c>
       <c r="L114" t="s">
-        <v>798</v>
+        <v>907</v>
       </c>
       <c r="M114" t="n">
         <v>5</v>
@@ -10588,50 +11370,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>798</v>
+        <v>907</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>37548</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>174944</v>
+      </c>
+      <c r="C115" t="s">
+        <v>908</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>799</v>
+        <v>909</v>
       </c>
       <c r="G115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>800</v>
+        <v>910</v>
       </c>
       <c r="J115" t="s">
-        <v>801</v>
+        <v>911</v>
       </c>
       <c r="K115" t="s">
-        <v>802</v>
+        <v>912</v>
       </c>
       <c r="L115" t="s">
-        <v>803</v>
+        <v>913</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>804</v>
+        <v>914</v>
       </c>
       <c r="O115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10655,7 +11441,7 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>805</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
